--- a/nse_test.xlsx
+++ b/nse_test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\nseindia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A3D24550-D1C5-4864-985B-4CA1DCE2F64D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FA3AFBA-FAC8-438D-933E-6137385E5AA4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4830" yWindow="1170" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NIFTY" sheetId="1" r:id="rId1"/>
@@ -75,7 +75,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -94,6 +94,29 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -189,27 +212,27 @@
   </cellStyleXfs>
   <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1"/>
     <xf numFmtId="21" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="21" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="21" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="21" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="21" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -493,8 +516,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N500"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="48" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" zoomScale="48" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -502,2690 +525,2703 @@
     <col min="1" max="14" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
-      <c r="B1" s="7" t="s">
+    <row r="1" spans="1:14" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A1" s="2"/>
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="7" t="s">
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="9"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="5"/>
+    </row>
+    <row r="2" spans="1:14" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="L2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="M2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="N2" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+    <row r="3" spans="1:14" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="8">
         <v>825</v>
       </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3">
+      <c r="C3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="8">
         <v>1510</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="8">
         <v>8500</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="8">
         <v>423975</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="8">
         <v>23100</v>
       </c>
-      <c r="K3" t="s">
-        <v>12</v>
-      </c>
-      <c r="L3" t="s">
-        <v>12</v>
-      </c>
-      <c r="M3" t="s">
-        <v>12</v>
-      </c>
-      <c r="N3">
+      <c r="K3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="M3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="N3" s="8">
         <v>0.85</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="11"/>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4">
+    <row r="4" spans="1:14" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A4" s="9"/>
+      <c r="B4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="8">
         <v>8550</v>
       </c>
-      <c r="I4" t="s">
-        <v>12</v>
-      </c>
-      <c r="J4" t="s">
-        <v>12</v>
-      </c>
-      <c r="K4" t="s">
-        <v>12</v>
-      </c>
-      <c r="L4" t="s">
-        <v>12</v>
-      </c>
-      <c r="M4" t="s">
-        <v>12</v>
-      </c>
-      <c r="N4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="11"/>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5" s="5">
+      <c r="I4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="M4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="N4" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A5" s="9"/>
+      <c r="B5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="11">
         <v>8600</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="8">
         <v>31950</v>
       </c>
-      <c r="J5" s="6">
+      <c r="J5" s="11">
         <v>300</v>
       </c>
-      <c r="K5" t="s">
-        <v>12</v>
-      </c>
-      <c r="L5" t="s">
-        <v>12</v>
-      </c>
-      <c r="M5" t="s">
-        <v>12</v>
-      </c>
-      <c r="N5">
+      <c r="K5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="M5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="N5" s="8">
         <v>0.75</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="11"/>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6">
+    <row r="6" spans="1:14" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A6" s="9"/>
+      <c r="B6" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="8">
         <v>8650</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="8">
         <v>525</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="8">
         <v>-225</v>
       </c>
-      <c r="K6" t="s">
-        <v>12</v>
-      </c>
-      <c r="L6" t="s">
-        <v>12</v>
-      </c>
-      <c r="M6" t="s">
-        <v>12</v>
-      </c>
-      <c r="N6">
+      <c r="K6" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="L6" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="M6" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="N6" s="8">
         <v>0.95</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="11"/>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H7">
+    <row r="7" spans="1:14" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A7" s="9"/>
+      <c r="B7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="8">
         <v>8700</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="8">
         <v>99225</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="8">
         <v>-13650</v>
       </c>
-      <c r="K7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L7" t="s">
-        <v>12</v>
-      </c>
-      <c r="M7" t="s">
-        <v>12</v>
-      </c>
-      <c r="N7">
+      <c r="K7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="L7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="M7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="N7" s="8">
         <v>0.9</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="11"/>
-      <c r="B8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
-      <c r="H8">
+    <row r="8" spans="1:14" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A8" s="9"/>
+      <c r="B8" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="8">
         <v>8750</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="8">
         <v>75</v>
       </c>
-      <c r="J8" t="s">
-        <v>12</v>
-      </c>
-      <c r="K8" t="s">
-        <v>12</v>
-      </c>
-      <c r="L8" t="s">
-        <v>12</v>
-      </c>
-      <c r="M8" t="s">
-        <v>12</v>
-      </c>
-      <c r="N8">
+      <c r="J8" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="K8" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="L8" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="M8" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="N8" s="8">
         <v>1.2</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="11"/>
-      <c r="B9">
+    <row r="9" spans="1:14" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A9" s="9"/>
+      <c r="B9" s="8">
         <v>150</v>
       </c>
-      <c r="C9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9">
+      <c r="C9" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="8">
         <v>1381.15</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="8">
         <v>8800</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="8">
         <v>92100</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="8">
         <v>-87225</v>
       </c>
-      <c r="K9" t="s">
-        <v>12</v>
-      </c>
-      <c r="L9" t="s">
-        <v>12</v>
-      </c>
-      <c r="M9" t="s">
-        <v>12</v>
-      </c>
-      <c r="N9">
+      <c r="K9" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="L9" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="M9" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="N9" s="8">
         <v>0.9</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="11"/>
-      <c r="B10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H10">
+    <row r="10" spans="1:14" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A10" s="9"/>
+      <c r="B10" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="8">
         <v>8850</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="8">
         <v>5550</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="8">
         <v>525</v>
       </c>
-      <c r="K10" t="s">
-        <v>12</v>
-      </c>
-      <c r="L10" t="s">
-        <v>12</v>
-      </c>
-      <c r="M10" t="s">
-        <v>12</v>
-      </c>
-      <c r="N10">
+      <c r="K10" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="L10" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="M10" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="N10" s="8">
         <v>2.4</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="11"/>
-      <c r="B11">
+    <row r="11" spans="1:14" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A11" s="9"/>
+      <c r="B11" s="8">
         <v>300</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="8">
         <v>-150</v>
       </c>
-      <c r="D11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11">
+      <c r="D11" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="8">
         <v>1275</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="8">
         <v>8900</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="8">
         <v>367950</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="8">
         <v>-271650</v>
       </c>
-      <c r="K11" t="s">
-        <v>12</v>
-      </c>
-      <c r="L11" t="s">
-        <v>12</v>
-      </c>
-      <c r="M11" t="s">
-        <v>12</v>
-      </c>
-      <c r="N11">
+      <c r="K11" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="L11" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="M11" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="N11" s="8">
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="11"/>
-      <c r="B12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" t="s">
-        <v>12</v>
-      </c>
-      <c r="H12">
+    <row r="12" spans="1:14" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A12" s="9"/>
+      <c r="B12" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" s="8">
         <v>8950</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="8">
         <v>2925</v>
       </c>
-      <c r="J12">
+      <c r="J12" s="8">
         <v>525</v>
       </c>
-      <c r="K12" t="s">
-        <v>12</v>
-      </c>
-      <c r="L12" t="s">
-        <v>12</v>
-      </c>
-      <c r="M12" t="s">
-        <v>12</v>
-      </c>
-      <c r="N12">
+      <c r="K12" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="L12" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="M12" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="N12" s="8">
         <v>1.4</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="11"/>
-      <c r="B13">
+    <row r="13" spans="1:14" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A13" s="9"/>
+      <c r="B13" s="8">
         <v>27075</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="8">
         <v>-600</v>
       </c>
-      <c r="D13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13">
+      <c r="D13" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="8">
         <v>1031</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="8">
         <v>9000</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="8">
         <v>1090050</v>
       </c>
-      <c r="J13">
+      <c r="J13" s="8">
         <v>97125</v>
       </c>
-      <c r="K13" t="s">
-        <v>12</v>
-      </c>
-      <c r="L13" t="s">
-        <v>12</v>
-      </c>
-      <c r="M13" t="s">
-        <v>12</v>
-      </c>
-      <c r="N13">
+      <c r="K13" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="L13" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="M13" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="N13" s="8">
         <v>1.5</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="11"/>
-      <c r="B14">
+    <row r="14" spans="1:14" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A14" s="9"/>
+      <c r="B14" s="8">
         <v>225</v>
       </c>
-      <c r="C14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" t="s">
-        <v>12</v>
-      </c>
-      <c r="F14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14">
+      <c r="C14" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="8">
         <v>1090.3</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="8">
         <v>9050</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="8">
         <v>19050</v>
       </c>
-      <c r="J14">
+      <c r="J14" s="8">
         <v>-6000</v>
       </c>
-      <c r="K14" t="s">
-        <v>12</v>
-      </c>
-      <c r="L14" t="s">
-        <v>12</v>
-      </c>
-      <c r="M14" t="s">
-        <v>12</v>
-      </c>
-      <c r="N14">
+      <c r="K14" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="L14" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="M14" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="N14" s="8">
         <v>1.45</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="11"/>
-      <c r="B15">
+    <row r="15" spans="1:14" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A15" s="9"/>
+      <c r="B15" s="8">
         <v>12000</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="8">
         <v>-375</v>
       </c>
-      <c r="D15" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G15">
+      <c r="D15" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="8">
         <v>912</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="8">
         <v>9100</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="8">
         <v>163500</v>
       </c>
-      <c r="J15">
+      <c r="J15" s="8">
         <v>-6600</v>
       </c>
-      <c r="K15" t="s">
-        <v>12</v>
-      </c>
-      <c r="L15" t="s">
-        <v>12</v>
-      </c>
-      <c r="M15" t="s">
-        <v>12</v>
-      </c>
-      <c r="N15">
+      <c r="K15" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="L15" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="M15" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="N15" s="8">
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="11"/>
-      <c r="B16">
+    <row r="16" spans="1:14" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A16" s="9"/>
+      <c r="B16" s="8">
         <v>75</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="8">
         <v>-75</v>
       </c>
-      <c r="D16" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F16" t="s">
-        <v>12</v>
-      </c>
-      <c r="G16">
+      <c r="D16" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="8">
         <v>1129.8</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="8">
         <v>9150</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="8">
         <v>6750</v>
       </c>
-      <c r="J16">
+      <c r="J16" s="8">
         <v>-5325</v>
       </c>
-      <c r="K16" t="s">
-        <v>12</v>
-      </c>
-      <c r="L16" t="s">
-        <v>12</v>
-      </c>
-      <c r="M16" t="s">
-        <v>12</v>
-      </c>
-      <c r="N16">
+      <c r="K16" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="L16" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="M16" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="N16" s="8">
         <v>1.35</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="11"/>
-      <c r="B17">
+    <row r="17" spans="1:14" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A17" s="9"/>
+      <c r="B17" s="8">
         <v>12225</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="8">
         <v>-675</v>
       </c>
-      <c r="D17" t="s">
-        <v>12</v>
-      </c>
-      <c r="E17" t="s">
-        <v>12</v>
-      </c>
-      <c r="F17" t="s">
-        <v>12</v>
-      </c>
-      <c r="G17">
+      <c r="D17" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="8">
         <v>821</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="8">
         <v>9200</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="8">
         <v>333375</v>
       </c>
-      <c r="J17">
+      <c r="J17" s="8">
         <v>-26475</v>
       </c>
-      <c r="K17" t="s">
-        <v>12</v>
-      </c>
-      <c r="L17" t="s">
-        <v>12</v>
-      </c>
-      <c r="M17" t="s">
-        <v>12</v>
-      </c>
-      <c r="N17">
+      <c r="K17" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="L17" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="M17" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="N17" s="8">
         <v>1.75</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="11"/>
-      <c r="B18">
+    <row r="18" spans="1:14" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A18" s="9"/>
+      <c r="B18" s="8">
         <v>225</v>
       </c>
-      <c r="C18" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" t="s">
-        <v>12</v>
-      </c>
-      <c r="E18" t="s">
-        <v>12</v>
-      </c>
-      <c r="F18" t="s">
-        <v>12</v>
-      </c>
-      <c r="G18">
+      <c r="C18" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" s="8">
         <v>1017.8</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="8">
         <v>9250</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="8">
         <v>13350</v>
       </c>
-      <c r="J18">
+      <c r="J18" s="8">
         <v>3300</v>
       </c>
-      <c r="K18" t="s">
-        <v>12</v>
-      </c>
-      <c r="L18" t="s">
-        <v>12</v>
-      </c>
-      <c r="M18" t="s">
-        <v>12</v>
-      </c>
-      <c r="N18">
+      <c r="K18" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="L18" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="M18" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="N18" s="8">
         <v>1.65</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="11"/>
-      <c r="B19">
+    <row r="19" spans="1:14" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A19" s="9"/>
+      <c r="B19" s="8">
         <v>49425</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="8">
         <v>-1875</v>
       </c>
-      <c r="D19" t="s">
-        <v>12</v>
-      </c>
-      <c r="E19" t="s">
-        <v>12</v>
-      </c>
-      <c r="F19" t="s">
-        <v>12</v>
-      </c>
-      <c r="G19">
+      <c r="D19" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" s="8">
         <v>712.9</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="8">
         <v>9300</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="8">
         <v>581550</v>
       </c>
-      <c r="J19">
+      <c r="J19" s="8">
         <v>96525</v>
       </c>
-      <c r="K19" t="s">
-        <v>12</v>
-      </c>
-      <c r="L19" t="s">
-        <v>12</v>
-      </c>
-      <c r="M19" t="s">
-        <v>12</v>
-      </c>
-      <c r="N19">
+      <c r="K19" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="L19" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="M19" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="N19" s="8">
         <v>2.1</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="11"/>
-      <c r="B20">
+    <row r="20" spans="1:14" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A20" s="9"/>
+      <c r="B20" s="8">
         <v>375</v>
       </c>
-      <c r="C20" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20" t="s">
-        <v>12</v>
-      </c>
-      <c r="E20" t="s">
-        <v>12</v>
-      </c>
-      <c r="F20" t="s">
-        <v>12</v>
-      </c>
-      <c r="G20">
+      <c r="C20" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="8">
         <v>949.95</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="8">
         <v>9350</v>
       </c>
-      <c r="I20">
+      <c r="I20" s="8">
         <v>73500</v>
       </c>
-      <c r="J20">
+      <c r="J20" s="8">
         <v>57750</v>
       </c>
-      <c r="K20" t="s">
-        <v>12</v>
-      </c>
-      <c r="L20" t="s">
-        <v>12</v>
-      </c>
-      <c r="M20" t="s">
-        <v>12</v>
-      </c>
-      <c r="N20">
+      <c r="K20" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="L20" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="M20" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="N20" s="8">
         <v>2.5</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="11"/>
-      <c r="B21">
+    <row r="21" spans="1:14" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A21" s="9"/>
+      <c r="B21" s="8">
         <v>38550</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="8">
         <v>-4125</v>
       </c>
-      <c r="D21" t="s">
-        <v>12</v>
-      </c>
-      <c r="E21" t="s">
-        <v>12</v>
-      </c>
-      <c r="F21" t="s">
-        <v>12</v>
-      </c>
-      <c r="G21">
+      <c r="D21" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" s="8">
         <v>626.79999999999995</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="8">
         <v>9400</v>
       </c>
-      <c r="I21">
+      <c r="I21" s="8">
         <v>771675</v>
       </c>
-      <c r="J21">
+      <c r="J21" s="8">
         <v>70050</v>
       </c>
-      <c r="K21" t="s">
-        <v>12</v>
-      </c>
-      <c r="L21" t="s">
-        <v>12</v>
-      </c>
-      <c r="M21" t="s">
-        <v>12</v>
-      </c>
-      <c r="N21">
+      <c r="K21" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="L21" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="M21" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="N21" s="8">
         <v>2.8</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="11"/>
-      <c r="B22">
+    <row r="22" spans="1:14" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A22" s="9"/>
+      <c r="B22" s="8">
         <v>4950</v>
       </c>
-      <c r="C22" t="s">
-        <v>12</v>
-      </c>
-      <c r="D22" t="s">
-        <v>12</v>
-      </c>
-      <c r="E22" t="s">
-        <v>12</v>
-      </c>
-      <c r="F22" t="s">
-        <v>12</v>
-      </c>
-      <c r="G22">
+      <c r="C22" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" s="8">
         <v>725.35</v>
       </c>
-      <c r="H22">
+      <c r="H22" s="8">
         <v>9450</v>
       </c>
-      <c r="I22">
+      <c r="I22" s="8">
         <v>54450</v>
       </c>
-      <c r="J22">
+      <c r="J22" s="8">
         <v>-675</v>
       </c>
-      <c r="K22" t="s">
-        <v>12</v>
-      </c>
-      <c r="L22" t="s">
-        <v>12</v>
-      </c>
-      <c r="M22" t="s">
-        <v>12</v>
-      </c>
-      <c r="N22">
+      <c r="K22" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="L22" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="M22" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="N22" s="8">
         <v>3.95</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="11"/>
-      <c r="B23">
+    <row r="23" spans="1:14" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A23" s="9"/>
+      <c r="B23" s="8">
         <v>110550</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="8">
         <v>-10425</v>
       </c>
-      <c r="D23" t="s">
-        <v>12</v>
-      </c>
-      <c r="E23" t="s">
-        <v>12</v>
-      </c>
-      <c r="F23" t="s">
-        <v>12</v>
-      </c>
-      <c r="G23">
+      <c r="D23" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G23" s="8">
         <v>519.75</v>
       </c>
-      <c r="H23">
+      <c r="H23" s="8">
         <v>9500</v>
       </c>
-      <c r="I23">
+      <c r="I23" s="8">
         <v>1397775</v>
       </c>
-      <c r="J23">
+      <c r="J23" s="8">
         <v>60825</v>
       </c>
-      <c r="K23" t="s">
-        <v>12</v>
-      </c>
-      <c r="L23" t="s">
-        <v>12</v>
-      </c>
-      <c r="M23" t="s">
-        <v>12</v>
-      </c>
-      <c r="N23">
+      <c r="K23" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="L23" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="M23" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="N23" s="8">
         <v>4.75</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="11"/>
-      <c r="B24">
+    <row r="24" spans="1:14" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A24" s="9"/>
+      <c r="B24" s="8">
         <v>2550</v>
       </c>
-      <c r="C24" t="s">
-        <v>12</v>
-      </c>
-      <c r="D24" t="s">
-        <v>12</v>
-      </c>
-      <c r="E24" t="s">
-        <v>12</v>
-      </c>
-      <c r="F24" t="s">
-        <v>12</v>
-      </c>
-      <c r="G24">
+      <c r="C24" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24" s="8">
         <v>479.2</v>
       </c>
-      <c r="H24">
+      <c r="H24" s="8">
         <v>9550</v>
       </c>
-      <c r="I24">
+      <c r="I24" s="8">
         <v>88725</v>
       </c>
-      <c r="J24">
+      <c r="J24" s="8">
         <v>23175</v>
       </c>
-      <c r="K24" t="s">
-        <v>12</v>
-      </c>
-      <c r="L24" t="s">
-        <v>12</v>
-      </c>
-      <c r="M24" t="s">
-        <v>12</v>
-      </c>
-      <c r="N24">
+      <c r="K24" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="L24" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="M24" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="N24" s="8">
         <v>5.7</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="11"/>
-      <c r="B25">
+    <row r="25" spans="1:14" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A25" s="9"/>
+      <c r="B25" s="8">
         <v>51675</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="8">
         <v>-600</v>
       </c>
-      <c r="D25" t="s">
-        <v>12</v>
-      </c>
-      <c r="E25" t="s">
-        <v>12</v>
-      </c>
-      <c r="F25" t="s">
-        <v>12</v>
-      </c>
-      <c r="G25">
+      <c r="D25" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" s="8">
         <v>419.8</v>
       </c>
-      <c r="H25">
+      <c r="H25" s="8">
         <v>9600</v>
       </c>
-      <c r="I25">
+      <c r="I25" s="8">
         <v>1176375</v>
       </c>
-      <c r="J25">
+      <c r="J25" s="8">
         <v>-84075</v>
       </c>
-      <c r="K25" t="s">
-        <v>12</v>
-      </c>
-      <c r="L25" t="s">
-        <v>12</v>
-      </c>
-      <c r="M25" t="s">
-        <v>12</v>
-      </c>
-      <c r="N25">
+      <c r="K25" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="L25" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="M25" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="N25" s="8">
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="11"/>
-      <c r="B26">
+    <row r="26" spans="1:14" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A26" s="9"/>
+      <c r="B26" s="8">
         <v>6000</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="8">
         <v>450</v>
       </c>
-      <c r="D26" t="s">
-        <v>12</v>
-      </c>
-      <c r="E26" t="s">
-        <v>12</v>
-      </c>
-      <c r="F26" t="s">
-        <v>12</v>
-      </c>
-      <c r="G26">
+      <c r="D26" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G26" s="8">
         <v>375.05</v>
       </c>
-      <c r="H26">
+      <c r="H26" s="8">
         <v>9650</v>
       </c>
-      <c r="I26">
+      <c r="I26" s="8">
         <v>149100</v>
       </c>
-      <c r="J26">
+      <c r="J26" s="8">
         <v>69000</v>
       </c>
-      <c r="K26" t="s">
-        <v>12</v>
-      </c>
-      <c r="L26" t="s">
-        <v>12</v>
-      </c>
-      <c r="M26" t="s">
-        <v>12</v>
-      </c>
-      <c r="N26">
+      <c r="K26" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="L26" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="M26" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="N26" s="8">
         <v>10.5</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="11"/>
-      <c r="B27">
+    <row r="27" spans="1:14" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A27" s="9"/>
+      <c r="B27" s="8">
         <v>70875</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="8">
         <v>-18300</v>
       </c>
-      <c r="D27" t="s">
-        <v>12</v>
-      </c>
-      <c r="E27" t="s">
-        <v>12</v>
-      </c>
-      <c r="F27" t="s">
-        <v>12</v>
-      </c>
-      <c r="G27">
+      <c r="D27" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G27" s="8">
         <v>325.10000000000002</v>
       </c>
-      <c r="H27">
+      <c r="H27" s="8">
         <v>9700</v>
       </c>
-      <c r="I27">
+      <c r="I27" s="8">
         <v>1338750</v>
       </c>
-      <c r="J27">
+      <c r="J27" s="8">
         <v>101400</v>
       </c>
-      <c r="K27" t="s">
-        <v>12</v>
-      </c>
-      <c r="L27" t="s">
-        <v>12</v>
-      </c>
-      <c r="M27" t="s">
-        <v>12</v>
-      </c>
-      <c r="N27">
+      <c r="K27" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="L27" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="M27" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="N27" s="8">
         <v>14.85</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="11"/>
-      <c r="B28">
+    <row r="28" spans="1:14" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A28" s="9"/>
+      <c r="B28" s="8">
         <v>7500</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="8">
         <v>4650</v>
       </c>
-      <c r="D28" t="s">
-        <v>12</v>
-      </c>
-      <c r="E28" t="s">
-        <v>12</v>
-      </c>
-      <c r="F28" t="s">
-        <v>12</v>
-      </c>
-      <c r="G28">
+      <c r="D28" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G28" s="8">
         <v>282.55</v>
       </c>
-      <c r="H28">
+      <c r="H28" s="8">
         <v>9750</v>
       </c>
-      <c r="I28">
+      <c r="I28" s="8">
         <v>288150</v>
       </c>
-      <c r="J28">
+      <c r="J28" s="8">
         <v>146925</v>
       </c>
-      <c r="K28" t="s">
-        <v>12</v>
-      </c>
-      <c r="L28" t="s">
-        <v>12</v>
-      </c>
-      <c r="M28" t="s">
-        <v>12</v>
-      </c>
-      <c r="N28">
+      <c r="K28" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="L28" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="M28" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="N28" s="8">
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="11"/>
-      <c r="B29">
+    <row r="29" spans="1:14" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A29" s="9"/>
+      <c r="B29" s="8">
         <v>248850</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="8">
         <v>4800</v>
       </c>
-      <c r="D29" t="s">
-        <v>12</v>
-      </c>
-      <c r="E29" t="s">
-        <v>12</v>
-      </c>
-      <c r="F29" t="s">
-        <v>12</v>
-      </c>
-      <c r="G29">
+      <c r="D29" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G29" s="8">
         <v>235.25</v>
       </c>
-      <c r="H29">
+      <c r="H29" s="8">
         <v>9800</v>
       </c>
-      <c r="I29">
+      <c r="I29" s="8">
         <v>2204025</v>
       </c>
-      <c r="J29">
+      <c r="J29" s="8">
         <v>116175</v>
       </c>
-      <c r="K29" t="s">
-        <v>12</v>
-      </c>
-      <c r="L29" t="s">
-        <v>12</v>
-      </c>
-      <c r="M29" t="s">
-        <v>12</v>
-      </c>
-      <c r="N29">
+      <c r="K29" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="L29" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="M29" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="N29" s="8">
         <v>25.3</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="11"/>
-      <c r="B30">
+    <row r="30" spans="1:14" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A30" s="9"/>
+      <c r="B30" s="8">
         <v>6525</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="8">
         <v>-975</v>
       </c>
-      <c r="D30" t="s">
-        <v>12</v>
-      </c>
-      <c r="E30" t="s">
-        <v>12</v>
-      </c>
-      <c r="F30" t="s">
-        <v>12</v>
-      </c>
-      <c r="G30">
+      <c r="D30" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G30" s="8">
         <v>196.2</v>
       </c>
-      <c r="H30">
+      <c r="H30" s="8">
         <v>9850</v>
       </c>
-      <c r="I30">
+      <c r="I30" s="8">
         <v>349275</v>
       </c>
-      <c r="J30">
+      <c r="J30" s="8">
         <v>107325</v>
       </c>
-      <c r="K30" t="s">
-        <v>12</v>
-      </c>
-      <c r="L30" t="s">
-        <v>12</v>
-      </c>
-      <c r="M30" t="s">
-        <v>12</v>
-      </c>
-      <c r="N30">
+      <c r="K30" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="L30" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="M30" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="N30" s="8">
         <v>33.200000000000003</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="11"/>
-      <c r="B31">
+    <row r="31" spans="1:14" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A31" s="9"/>
+      <c r="B31" s="8">
         <v>246825</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="8">
         <v>95550</v>
       </c>
-      <c r="D31" t="s">
-        <v>12</v>
-      </c>
-      <c r="E31" t="s">
-        <v>12</v>
-      </c>
-      <c r="F31" t="s">
-        <v>12</v>
-      </c>
-      <c r="G31">
+      <c r="D31" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G31" s="8">
         <v>150.55000000000001</v>
       </c>
-      <c r="H31">
+      <c r="H31" s="8">
         <v>9900</v>
       </c>
-      <c r="I31">
+      <c r="I31" s="8">
         <v>1942950</v>
       </c>
-      <c r="J31">
+      <c r="J31" s="8">
         <v>269250</v>
       </c>
-      <c r="K31" t="s">
-        <v>12</v>
-      </c>
-      <c r="L31" t="s">
-        <v>12</v>
-      </c>
-      <c r="M31" t="s">
-        <v>12</v>
-      </c>
-      <c r="N31">
+      <c r="K31" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="L31" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="M31" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="N31" s="8">
         <v>46</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="11"/>
-      <c r="B32">
+    <row r="32" spans="1:14" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A32" s="9"/>
+      <c r="B32" s="8">
         <v>30300</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="8">
         <v>10875</v>
       </c>
-      <c r="D32" t="s">
-        <v>12</v>
-      </c>
-      <c r="E32" t="s">
-        <v>12</v>
-      </c>
-      <c r="F32" t="s">
-        <v>12</v>
-      </c>
-      <c r="G32">
+      <c r="D32" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G32" s="8">
         <v>124.05</v>
       </c>
-      <c r="H32">
+      <c r="H32" s="8">
         <v>9950</v>
       </c>
-      <c r="I32">
+      <c r="I32" s="8">
         <v>301275</v>
       </c>
-      <c r="J32">
+      <c r="J32" s="8">
         <v>105600</v>
       </c>
-      <c r="K32" t="s">
-        <v>12</v>
-      </c>
-      <c r="L32" t="s">
-        <v>12</v>
-      </c>
-      <c r="M32" t="s">
-        <v>12</v>
-      </c>
-      <c r="N32">
+      <c r="K32" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="L32" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="M32" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="N32" s="8">
         <v>61.9</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="11"/>
-      <c r="B33">
+    <row r="33" spans="1:14" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A33" s="9"/>
+      <c r="B33" s="8">
         <v>962925</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="8">
         <v>345600</v>
       </c>
-      <c r="D33" t="s">
-        <v>12</v>
-      </c>
-      <c r="E33" t="s">
-        <v>12</v>
-      </c>
-      <c r="F33" t="s">
-        <v>12</v>
-      </c>
-      <c r="G33">
+      <c r="D33" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G33" s="8">
         <v>94</v>
       </c>
-      <c r="H33">
+      <c r="H33" s="8">
         <v>10000</v>
       </c>
-      <c r="I33">
+      <c r="I33" s="8">
         <v>2107275</v>
       </c>
-      <c r="J33">
+      <c r="J33" s="8">
         <v>-144750</v>
       </c>
-      <c r="K33" t="s">
-        <v>12</v>
-      </c>
-      <c r="L33" t="s">
-        <v>12</v>
-      </c>
-      <c r="M33" t="s">
-        <v>12</v>
-      </c>
-      <c r="N33">
+      <c r="K33" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="L33" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="M33" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="N33" s="8">
         <v>81.5</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="11"/>
+    <row r="34" spans="1:14" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A34" s="9"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="8"/>
+      <c r="K34" s="8"/>
+      <c r="L34" s="8"/>
+      <c r="M34" s="8"/>
+      <c r="N34" s="8"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" s="3"/>
+      <c r="A35" s="1"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" s="3"/>
+      <c r="A36" s="1"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37" s="3"/>
+      <c r="A37" s="1"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" s="3"/>
+      <c r="A38" s="1"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A41" s="3"/>
+      <c r="A41" s="1"/>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A42" s="3"/>
+      <c r="A42" s="1"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A43" s="3"/>
+      <c r="A43" s="1"/>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A44" s="3"/>
+      <c r="A44" s="1"/>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A45" s="3"/>
+      <c r="A45" s="1"/>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A46" s="3"/>
+      <c r="A46" s="1"/>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A47" s="3"/>
+      <c r="A47" s="1"/>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A48" s="3"/>
+      <c r="A48" s="1"/>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="3"/>
+      <c r="A49" s="1"/>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="3"/>
+      <c r="A50" s="1"/>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" s="3"/>
+      <c r="A51" s="1"/>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" s="3"/>
+      <c r="A52" s="1"/>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" s="3"/>
+      <c r="A53" s="1"/>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" s="3"/>
+      <c r="A54" s="1"/>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" s="3"/>
+      <c r="A55" s="1"/>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" s="3"/>
+      <c r="A56" s="1"/>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" s="3"/>
+      <c r="A57" s="1"/>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" s="3"/>
+      <c r="A58" s="1"/>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" s="3"/>
+      <c r="A59" s="1"/>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" s="3"/>
+      <c r="A60" s="1"/>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" s="3"/>
+      <c r="A61" s="1"/>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62" s="3"/>
+      <c r="A62" s="1"/>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63" s="3"/>
+      <c r="A63" s="1"/>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64" s="3"/>
+      <c r="A64" s="1"/>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" s="3"/>
+      <c r="A65" s="1"/>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" s="3"/>
+      <c r="A66" s="1"/>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" s="3"/>
+      <c r="A67" s="1"/>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" s="3"/>
+      <c r="A68" s="1"/>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" s="3"/>
+      <c r="A69" s="1"/>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" s="3"/>
+      <c r="A70" s="1"/>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71" s="3"/>
+      <c r="A71" s="1"/>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A74" s="3"/>
+      <c r="A74" s="1"/>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A75" s="3"/>
+      <c r="A75" s="1"/>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A76" s="3"/>
+      <c r="A76" s="1"/>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A77" s="3"/>
+      <c r="A77" s="1"/>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A78" s="3"/>
+      <c r="A78" s="1"/>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A79" s="3"/>
+      <c r="A79" s="1"/>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A80" s="3"/>
+      <c r="A80" s="1"/>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81" s="3"/>
+      <c r="A81" s="1"/>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A82" s="3"/>
+      <c r="A82" s="1"/>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A83" s="3"/>
+      <c r="A83" s="1"/>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A84" s="3"/>
+      <c r="A84" s="1"/>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A85" s="3"/>
+      <c r="A85" s="1"/>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A86" s="3"/>
+      <c r="A86" s="1"/>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A87" s="3"/>
+      <c r="A87" s="1"/>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A88" s="3"/>
+      <c r="A88" s="1"/>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A89" s="3"/>
+      <c r="A89" s="1"/>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A90" s="3"/>
+      <c r="A90" s="1"/>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A91" s="3"/>
+      <c r="A91" s="1"/>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A92" s="3"/>
+      <c r="A92" s="1"/>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A93" s="3"/>
+      <c r="A93" s="1"/>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A94" s="3"/>
+      <c r="A94" s="1"/>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A95" s="3"/>
+      <c r="A95" s="1"/>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A96" s="3"/>
+      <c r="A96" s="1"/>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A97" s="3"/>
+      <c r="A97" s="1"/>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A98" s="3"/>
+      <c r="A98" s="1"/>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A99" s="3"/>
+      <c r="A99" s="1"/>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A100" s="3"/>
+      <c r="A100" s="1"/>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A101" s="3"/>
+      <c r="A101" s="1"/>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A102" s="3"/>
+      <c r="A102" s="1"/>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A103" s="3"/>
+      <c r="A103" s="1"/>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A104" s="3"/>
+      <c r="A104" s="1"/>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A107" s="3"/>
+      <c r="A107" s="1"/>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A108" s="3"/>
+      <c r="A108" s="1"/>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A109" s="3"/>
+      <c r="A109" s="1"/>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A110" s="3"/>
+      <c r="A110" s="1"/>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A111" s="3"/>
+      <c r="A111" s="1"/>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A112" s="3"/>
+      <c r="A112" s="1"/>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A113" s="3"/>
+      <c r="A113" s="1"/>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A114" s="3"/>
+      <c r="A114" s="1"/>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A115" s="3"/>
+      <c r="A115" s="1"/>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A116" s="3"/>
+      <c r="A116" s="1"/>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A117" s="3"/>
+      <c r="A117" s="1"/>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A118" s="3"/>
+      <c r="A118" s="1"/>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A119" s="3"/>
+      <c r="A119" s="1"/>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A120" s="3"/>
+      <c r="A120" s="1"/>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A121" s="3"/>
+      <c r="A121" s="1"/>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A122" s="3"/>
+      <c r="A122" s="1"/>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A123" s="3"/>
+      <c r="A123" s="1"/>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A124" s="3"/>
+      <c r="A124" s="1"/>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A125" s="3"/>
+      <c r="A125" s="1"/>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A126" s="3"/>
+      <c r="A126" s="1"/>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A127" s="3"/>
+      <c r="A127" s="1"/>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A128" s="3"/>
+      <c r="A128" s="1"/>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A129" s="3"/>
+      <c r="A129" s="1"/>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A130" s="3"/>
+      <c r="A130" s="1"/>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A131" s="3"/>
+      <c r="A131" s="1"/>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A132" s="3"/>
+      <c r="A132" s="1"/>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A133" s="3"/>
+      <c r="A133" s="1"/>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A134" s="3"/>
+      <c r="A134" s="1"/>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A135" s="3"/>
+      <c r="A135" s="1"/>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A136" s="3"/>
+      <c r="A136" s="1"/>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A137" s="3"/>
+      <c r="A137" s="1"/>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A140" s="3"/>
+      <c r="A140" s="1"/>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A141" s="3"/>
+      <c r="A141" s="1"/>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A142" s="3"/>
+      <c r="A142" s="1"/>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A143" s="3"/>
+      <c r="A143" s="1"/>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A144" s="3"/>
+      <c r="A144" s="1"/>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A145" s="3"/>
+      <c r="A145" s="1"/>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A146" s="3"/>
+      <c r="A146" s="1"/>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A147" s="3"/>
+      <c r="A147" s="1"/>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A148" s="3"/>
+      <c r="A148" s="1"/>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A149" s="3"/>
+      <c r="A149" s="1"/>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A150" s="3"/>
+      <c r="A150" s="1"/>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A151" s="3"/>
+      <c r="A151" s="1"/>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A152" s="3"/>
+      <c r="A152" s="1"/>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A153" s="3"/>
+      <c r="A153" s="1"/>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A154" s="3"/>
+      <c r="A154" s="1"/>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A155" s="3"/>
+      <c r="A155" s="1"/>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A156" s="3"/>
+      <c r="A156" s="1"/>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A157" s="3"/>
+      <c r="A157" s="1"/>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A158" s="3"/>
+      <c r="A158" s="1"/>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A159" s="3"/>
+      <c r="A159" s="1"/>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A160" s="3"/>
+      <c r="A160" s="1"/>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A161" s="3"/>
+      <c r="A161" s="1"/>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A162" s="3"/>
+      <c r="A162" s="1"/>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A163" s="3"/>
+      <c r="A163" s="1"/>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A164" s="3"/>
+      <c r="A164" s="1"/>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A165" s="3"/>
+      <c r="A165" s="1"/>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A166" s="3"/>
+      <c r="A166" s="1"/>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A167" s="3"/>
+      <c r="A167" s="1"/>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A168" s="3"/>
+      <c r="A168" s="1"/>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A169" s="3"/>
+      <c r="A169" s="1"/>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A170" s="3"/>
+      <c r="A170" s="1"/>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A173" s="3"/>
+      <c r="A173" s="1"/>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A174" s="3"/>
+      <c r="A174" s="1"/>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A175" s="3"/>
+      <c r="A175" s="1"/>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A176" s="3"/>
+      <c r="A176" s="1"/>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A177" s="3"/>
+      <c r="A177" s="1"/>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A178" s="3"/>
+      <c r="A178" s="1"/>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A179" s="3"/>
+      <c r="A179" s="1"/>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A180" s="3"/>
+      <c r="A180" s="1"/>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A181" s="3"/>
+      <c r="A181" s="1"/>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A182" s="3"/>
+      <c r="A182" s="1"/>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A183" s="3"/>
+      <c r="A183" s="1"/>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A184" s="3"/>
+      <c r="A184" s="1"/>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A185" s="3"/>
+      <c r="A185" s="1"/>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A186" s="3"/>
+      <c r="A186" s="1"/>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A187" s="3"/>
+      <c r="A187" s="1"/>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A188" s="3"/>
+      <c r="A188" s="1"/>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A189" s="3"/>
+      <c r="A189" s="1"/>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A190" s="3"/>
+      <c r="A190" s="1"/>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A191" s="3"/>
+      <c r="A191" s="1"/>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A192" s="3"/>
+      <c r="A192" s="1"/>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A193" s="3"/>
+      <c r="A193" s="1"/>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A194" s="3"/>
+      <c r="A194" s="1"/>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A195" s="3"/>
+      <c r="A195" s="1"/>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A196" s="3"/>
+      <c r="A196" s="1"/>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A197" s="3"/>
+      <c r="A197" s="1"/>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A198" s="3"/>
+      <c r="A198" s="1"/>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A199" s="3"/>
+      <c r="A199" s="1"/>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A200" s="3"/>
+      <c r="A200" s="1"/>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A201" s="3"/>
+      <c r="A201" s="1"/>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A202" s="3"/>
+      <c r="A202" s="1"/>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A203" s="3"/>
+      <c r="A203" s="1"/>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A206" s="3"/>
+      <c r="A206" s="1"/>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A207" s="3"/>
+      <c r="A207" s="1"/>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A208" s="3"/>
+      <c r="A208" s="1"/>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A209" s="3"/>
+      <c r="A209" s="1"/>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A210" s="3"/>
+      <c r="A210" s="1"/>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A211" s="3"/>
+      <c r="A211" s="1"/>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A212" s="3"/>
+      <c r="A212" s="1"/>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A213" s="3"/>
+      <c r="A213" s="1"/>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A214" s="3"/>
+      <c r="A214" s="1"/>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A215" s="3"/>
+      <c r="A215" s="1"/>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A216" s="3"/>
+      <c r="A216" s="1"/>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A217" s="3"/>
+      <c r="A217" s="1"/>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A218" s="3"/>
+      <c r="A218" s="1"/>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A219" s="3"/>
+      <c r="A219" s="1"/>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A220" s="3"/>
+      <c r="A220" s="1"/>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A221" s="3"/>
+      <c r="A221" s="1"/>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A222" s="3"/>
+      <c r="A222" s="1"/>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A223" s="3"/>
+      <c r="A223" s="1"/>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A224" s="3"/>
+      <c r="A224" s="1"/>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A225" s="3"/>
+      <c r="A225" s="1"/>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A226" s="3"/>
+      <c r="A226" s="1"/>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A227" s="3"/>
+      <c r="A227" s="1"/>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A228" s="3"/>
+      <c r="A228" s="1"/>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A229" s="3"/>
+      <c r="A229" s="1"/>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A230" s="3"/>
+      <c r="A230" s="1"/>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A231" s="3"/>
+      <c r="A231" s="1"/>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A232" s="3"/>
+      <c r="A232" s="1"/>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A233" s="3"/>
+      <c r="A233" s="1"/>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A234" s="3"/>
+      <c r="A234" s="1"/>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A235" s="3"/>
+      <c r="A235" s="1"/>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A236" s="3"/>
+      <c r="A236" s="1"/>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A239" s="3"/>
+      <c r="A239" s="1"/>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A240" s="3"/>
+      <c r="A240" s="1"/>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A241" s="3"/>
+      <c r="A241" s="1"/>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A242" s="3"/>
+      <c r="A242" s="1"/>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A243" s="3"/>
+      <c r="A243" s="1"/>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A244" s="3"/>
+      <c r="A244" s="1"/>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A245" s="3"/>
+      <c r="A245" s="1"/>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A246" s="3"/>
+      <c r="A246" s="1"/>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A247" s="3"/>
+      <c r="A247" s="1"/>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A248" s="3"/>
+      <c r="A248" s="1"/>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A249" s="3"/>
+      <c r="A249" s="1"/>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A250" s="3"/>
+      <c r="A250" s="1"/>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A251" s="3"/>
+      <c r="A251" s="1"/>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A252" s="3"/>
+      <c r="A252" s="1"/>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A253" s="3"/>
+      <c r="A253" s="1"/>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A254" s="3"/>
+      <c r="A254" s="1"/>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A255" s="3"/>
+      <c r="A255" s="1"/>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A256" s="3"/>
+      <c r="A256" s="1"/>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A257" s="3"/>
+      <c r="A257" s="1"/>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A258" s="3"/>
+      <c r="A258" s="1"/>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A259" s="3"/>
+      <c r="A259" s="1"/>
     </row>
     <row r="260" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A260" s="3"/>
+      <c r="A260" s="1"/>
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A261" s="3"/>
+      <c r="A261" s="1"/>
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A262" s="3"/>
+      <c r="A262" s="1"/>
     </row>
     <row r="263" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A263" s="3"/>
+      <c r="A263" s="1"/>
     </row>
     <row r="264" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A264" s="3"/>
+      <c r="A264" s="1"/>
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A265" s="3"/>
+      <c r="A265" s="1"/>
     </row>
     <row r="266" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A266" s="3"/>
+      <c r="A266" s="1"/>
     </row>
     <row r="267" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A267" s="3"/>
+      <c r="A267" s="1"/>
     </row>
     <row r="268" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A268" s="3"/>
+      <c r="A268" s="1"/>
     </row>
     <row r="269" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A269" s="3"/>
+      <c r="A269" s="1"/>
     </row>
     <row r="272" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A272" s="3"/>
+      <c r="A272" s="1"/>
     </row>
     <row r="273" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A273" s="3"/>
+      <c r="A273" s="1"/>
     </row>
     <row r="274" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A274" s="3"/>
+      <c r="A274" s="1"/>
     </row>
     <row r="275" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A275" s="3"/>
+      <c r="A275" s="1"/>
     </row>
     <row r="276" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A276" s="3"/>
+      <c r="A276" s="1"/>
     </row>
     <row r="277" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A277" s="3"/>
+      <c r="A277" s="1"/>
     </row>
     <row r="278" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A278" s="3"/>
+      <c r="A278" s="1"/>
     </row>
     <row r="279" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A279" s="3"/>
+      <c r="A279" s="1"/>
     </row>
     <row r="280" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A280" s="3"/>
+      <c r="A280" s="1"/>
     </row>
     <row r="281" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A281" s="3"/>
+      <c r="A281" s="1"/>
     </row>
     <row r="282" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A282" s="3"/>
+      <c r="A282" s="1"/>
     </row>
     <row r="283" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A283" s="3"/>
+      <c r="A283" s="1"/>
     </row>
     <row r="284" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A284" s="3"/>
+      <c r="A284" s="1"/>
     </row>
     <row r="285" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A285" s="3"/>
+      <c r="A285" s="1"/>
     </row>
     <row r="286" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A286" s="3"/>
+      <c r="A286" s="1"/>
     </row>
     <row r="287" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A287" s="3"/>
+      <c r="A287" s="1"/>
     </row>
     <row r="288" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A288" s="3"/>
+      <c r="A288" s="1"/>
     </row>
     <row r="289" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A289" s="3"/>
+      <c r="A289" s="1"/>
     </row>
     <row r="290" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A290" s="3"/>
+      <c r="A290" s="1"/>
     </row>
     <row r="291" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A291" s="3"/>
+      <c r="A291" s="1"/>
     </row>
     <row r="292" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A292" s="3"/>
+      <c r="A292" s="1"/>
     </row>
     <row r="293" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A293" s="3"/>
+      <c r="A293" s="1"/>
     </row>
     <row r="294" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A294" s="3"/>
+      <c r="A294" s="1"/>
     </row>
     <row r="295" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A295" s="3"/>
+      <c r="A295" s="1"/>
     </row>
     <row r="296" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A296" s="3"/>
+      <c r="A296" s="1"/>
     </row>
     <row r="297" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A297" s="3"/>
+      <c r="A297" s="1"/>
     </row>
     <row r="298" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A298" s="3"/>
+      <c r="A298" s="1"/>
     </row>
     <row r="299" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A299" s="3"/>
+      <c r="A299" s="1"/>
     </row>
     <row r="300" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A300" s="3"/>
+      <c r="A300" s="1"/>
     </row>
     <row r="301" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A301" s="3"/>
+      <c r="A301" s="1"/>
     </row>
     <row r="302" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A302" s="3"/>
+      <c r="A302" s="1"/>
     </row>
     <row r="305" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A305" s="3"/>
+      <c r="A305" s="1"/>
     </row>
     <row r="306" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A306" s="3"/>
+      <c r="A306" s="1"/>
     </row>
     <row r="307" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A307" s="3"/>
+      <c r="A307" s="1"/>
     </row>
     <row r="308" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A308" s="3"/>
+      <c r="A308" s="1"/>
     </row>
     <row r="309" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A309" s="3"/>
+      <c r="A309" s="1"/>
     </row>
     <row r="310" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A310" s="3"/>
+      <c r="A310" s="1"/>
     </row>
     <row r="311" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A311" s="3"/>
+      <c r="A311" s="1"/>
     </row>
     <row r="312" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A312" s="3"/>
+      <c r="A312" s="1"/>
     </row>
     <row r="313" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A313" s="3"/>
+      <c r="A313" s="1"/>
     </row>
     <row r="314" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A314" s="3"/>
+      <c r="A314" s="1"/>
     </row>
     <row r="315" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A315" s="3"/>
+      <c r="A315" s="1"/>
     </row>
     <row r="316" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A316" s="3"/>
+      <c r="A316" s="1"/>
     </row>
     <row r="317" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A317" s="3"/>
+      <c r="A317" s="1"/>
     </row>
     <row r="318" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A318" s="3"/>
+      <c r="A318" s="1"/>
     </row>
     <row r="319" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A319" s="3"/>
+      <c r="A319" s="1"/>
     </row>
     <row r="320" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A320" s="3"/>
+      <c r="A320" s="1"/>
     </row>
     <row r="321" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A321" s="3"/>
+      <c r="A321" s="1"/>
     </row>
     <row r="322" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A322" s="3"/>
+      <c r="A322" s="1"/>
     </row>
     <row r="323" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A323" s="3"/>
+      <c r="A323" s="1"/>
     </row>
     <row r="324" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A324" s="3"/>
+      <c r="A324" s="1"/>
     </row>
     <row r="325" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A325" s="3"/>
+      <c r="A325" s="1"/>
     </row>
     <row r="326" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A326" s="3"/>
+      <c r="A326" s="1"/>
     </row>
     <row r="327" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A327" s="3"/>
+      <c r="A327" s="1"/>
     </row>
     <row r="328" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A328" s="3"/>
+      <c r="A328" s="1"/>
     </row>
     <row r="329" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A329" s="3"/>
+      <c r="A329" s="1"/>
     </row>
     <row r="330" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A330" s="3"/>
+      <c r="A330" s="1"/>
     </row>
     <row r="331" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A331" s="3"/>
+      <c r="A331" s="1"/>
     </row>
     <row r="332" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A332" s="3"/>
+      <c r="A332" s="1"/>
     </row>
     <row r="333" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A333" s="3"/>
+      <c r="A333" s="1"/>
     </row>
     <row r="334" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A334" s="3"/>
+      <c r="A334" s="1"/>
     </row>
     <row r="335" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A335" s="3"/>
+      <c r="A335" s="1"/>
     </row>
     <row r="338" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A338" s="3"/>
+      <c r="A338" s="1"/>
     </row>
     <row r="339" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A339" s="3"/>
+      <c r="A339" s="1"/>
     </row>
     <row r="340" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A340" s="3"/>
+      <c r="A340" s="1"/>
     </row>
     <row r="341" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A341" s="3"/>
+      <c r="A341" s="1"/>
     </row>
     <row r="342" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A342" s="3"/>
+      <c r="A342" s="1"/>
     </row>
     <row r="343" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A343" s="3"/>
+      <c r="A343" s="1"/>
     </row>
     <row r="344" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A344" s="3"/>
+      <c r="A344" s="1"/>
     </row>
     <row r="345" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A345" s="3"/>
+      <c r="A345" s="1"/>
     </row>
     <row r="346" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A346" s="3"/>
+      <c r="A346" s="1"/>
     </row>
     <row r="347" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A347" s="3"/>
+      <c r="A347" s="1"/>
     </row>
     <row r="348" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A348" s="3"/>
+      <c r="A348" s="1"/>
     </row>
     <row r="349" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A349" s="3"/>
+      <c r="A349" s="1"/>
     </row>
     <row r="350" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A350" s="3"/>
+      <c r="A350" s="1"/>
     </row>
     <row r="351" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A351" s="3"/>
+      <c r="A351" s="1"/>
     </row>
     <row r="352" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A352" s="3"/>
+      <c r="A352" s="1"/>
     </row>
     <row r="353" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A353" s="3"/>
+      <c r="A353" s="1"/>
     </row>
     <row r="354" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A354" s="3"/>
+      <c r="A354" s="1"/>
     </row>
     <row r="355" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A355" s="3"/>
+      <c r="A355" s="1"/>
     </row>
     <row r="356" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A356" s="3"/>
+      <c r="A356" s="1"/>
     </row>
     <row r="357" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A357" s="3"/>
+      <c r="A357" s="1"/>
     </row>
     <row r="358" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A358" s="3"/>
+      <c r="A358" s="1"/>
     </row>
     <row r="359" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A359" s="3"/>
+      <c r="A359" s="1"/>
     </row>
     <row r="360" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A360" s="3"/>
+      <c r="A360" s="1"/>
     </row>
     <row r="361" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A361" s="3"/>
+      <c r="A361" s="1"/>
     </row>
     <row r="362" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A362" s="3"/>
+      <c r="A362" s="1"/>
     </row>
     <row r="363" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A363" s="3"/>
+      <c r="A363" s="1"/>
     </row>
     <row r="364" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A364" s="3"/>
+      <c r="A364" s="1"/>
     </row>
     <row r="365" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A365" s="3"/>
+      <c r="A365" s="1"/>
     </row>
     <row r="366" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A366" s="3"/>
+      <c r="A366" s="1"/>
     </row>
     <row r="367" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A367" s="3"/>
+      <c r="A367" s="1"/>
     </row>
     <row r="368" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A368" s="3"/>
+      <c r="A368" s="1"/>
     </row>
     <row r="371" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A371" s="3"/>
+      <c r="A371" s="1"/>
     </row>
     <row r="372" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A372" s="3"/>
+      <c r="A372" s="1"/>
     </row>
     <row r="373" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A373" s="3"/>
+      <c r="A373" s="1"/>
     </row>
     <row r="374" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A374" s="3"/>
+      <c r="A374" s="1"/>
     </row>
     <row r="375" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A375" s="3"/>
+      <c r="A375" s="1"/>
     </row>
     <row r="376" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A376" s="3"/>
+      <c r="A376" s="1"/>
     </row>
     <row r="377" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A377" s="3"/>
+      <c r="A377" s="1"/>
     </row>
     <row r="378" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A378" s="3"/>
+      <c r="A378" s="1"/>
     </row>
     <row r="379" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A379" s="3"/>
+      <c r="A379" s="1"/>
     </row>
     <row r="380" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A380" s="3"/>
+      <c r="A380" s="1"/>
     </row>
     <row r="381" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A381" s="3"/>
+      <c r="A381" s="1"/>
     </row>
     <row r="382" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A382" s="3"/>
+      <c r="A382" s="1"/>
     </row>
     <row r="383" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A383" s="3"/>
+      <c r="A383" s="1"/>
     </row>
     <row r="384" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A384" s="3"/>
+      <c r="A384" s="1"/>
     </row>
     <row r="385" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A385" s="3"/>
+      <c r="A385" s="1"/>
     </row>
     <row r="386" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A386" s="3"/>
+      <c r="A386" s="1"/>
     </row>
     <row r="387" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A387" s="3"/>
+      <c r="A387" s="1"/>
     </row>
     <row r="388" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A388" s="3"/>
+      <c r="A388" s="1"/>
     </row>
     <row r="389" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A389" s="3"/>
+      <c r="A389" s="1"/>
     </row>
     <row r="390" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A390" s="3"/>
+      <c r="A390" s="1"/>
     </row>
     <row r="391" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A391" s="3"/>
+      <c r="A391" s="1"/>
     </row>
     <row r="392" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A392" s="3"/>
+      <c r="A392" s="1"/>
     </row>
     <row r="393" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A393" s="3"/>
+      <c r="A393" s="1"/>
     </row>
     <row r="394" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A394" s="3"/>
+      <c r="A394" s="1"/>
     </row>
     <row r="395" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A395" s="3"/>
+      <c r="A395" s="1"/>
     </row>
     <row r="396" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A396" s="3"/>
+      <c r="A396" s="1"/>
     </row>
     <row r="397" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A397" s="3"/>
+      <c r="A397" s="1"/>
     </row>
     <row r="398" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A398" s="3"/>
+      <c r="A398" s="1"/>
     </row>
     <row r="399" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A399" s="3"/>
+      <c r="A399" s="1"/>
     </row>
     <row r="400" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A400" s="3"/>
+      <c r="A400" s="1"/>
     </row>
     <row r="401" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A401" s="3"/>
+      <c r="A401" s="1"/>
     </row>
     <row r="404" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A404" s="3"/>
+      <c r="A404" s="1"/>
     </row>
     <row r="405" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A405" s="3"/>
+      <c r="A405" s="1"/>
     </row>
     <row r="406" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A406" s="3"/>
+      <c r="A406" s="1"/>
     </row>
     <row r="407" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A407" s="3"/>
+      <c r="A407" s="1"/>
     </row>
     <row r="408" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A408" s="3"/>
+      <c r="A408" s="1"/>
     </row>
     <row r="409" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A409" s="3"/>
+      <c r="A409" s="1"/>
     </row>
     <row r="410" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A410" s="3"/>
+      <c r="A410" s="1"/>
     </row>
     <row r="411" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A411" s="3"/>
+      <c r="A411" s="1"/>
     </row>
     <row r="412" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A412" s="3"/>
+      <c r="A412" s="1"/>
     </row>
     <row r="413" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A413" s="3"/>
+      <c r="A413" s="1"/>
     </row>
     <row r="414" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A414" s="3"/>
+      <c r="A414" s="1"/>
     </row>
     <row r="415" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A415" s="3"/>
+      <c r="A415" s="1"/>
     </row>
     <row r="416" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A416" s="3"/>
+      <c r="A416" s="1"/>
     </row>
     <row r="417" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A417" s="3"/>
+      <c r="A417" s="1"/>
     </row>
     <row r="418" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A418" s="3"/>
+      <c r="A418" s="1"/>
     </row>
     <row r="419" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A419" s="3"/>
+      <c r="A419" s="1"/>
     </row>
     <row r="420" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A420" s="3"/>
+      <c r="A420" s="1"/>
     </row>
     <row r="421" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A421" s="3"/>
+      <c r="A421" s="1"/>
     </row>
     <row r="422" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A422" s="3"/>
+      <c r="A422" s="1"/>
     </row>
     <row r="423" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A423" s="3"/>
+      <c r="A423" s="1"/>
     </row>
     <row r="424" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A424" s="3"/>
+      <c r="A424" s="1"/>
     </row>
     <row r="425" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A425" s="3"/>
+      <c r="A425" s="1"/>
     </row>
     <row r="426" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A426" s="3"/>
+      <c r="A426" s="1"/>
     </row>
     <row r="427" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A427" s="3"/>
+      <c r="A427" s="1"/>
     </row>
     <row r="428" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A428" s="3"/>
+      <c r="A428" s="1"/>
     </row>
     <row r="429" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A429" s="3"/>
+      <c r="A429" s="1"/>
     </row>
     <row r="430" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A430" s="3"/>
+      <c r="A430" s="1"/>
     </row>
     <row r="431" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A431" s="3"/>
+      <c r="A431" s="1"/>
     </row>
     <row r="432" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A432" s="3"/>
+      <c r="A432" s="1"/>
     </row>
     <row r="433" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A433" s="3"/>
+      <c r="A433" s="1"/>
     </row>
     <row r="434" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A434" s="3"/>
+      <c r="A434" s="1"/>
     </row>
     <row r="437" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A437" s="3"/>
+      <c r="A437" s="1"/>
     </row>
     <row r="438" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A438" s="3"/>
+      <c r="A438" s="1"/>
     </row>
     <row r="439" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A439" s="3"/>
+      <c r="A439" s="1"/>
     </row>
     <row r="440" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A440" s="3"/>
+      <c r="A440" s="1"/>
     </row>
     <row r="441" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A441" s="3"/>
+      <c r="A441" s="1"/>
     </row>
     <row r="442" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A442" s="3"/>
+      <c r="A442" s="1"/>
     </row>
     <row r="443" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A443" s="3"/>
+      <c r="A443" s="1"/>
     </row>
     <row r="444" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A444" s="3"/>
+      <c r="A444" s="1"/>
     </row>
     <row r="445" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A445" s="3"/>
+      <c r="A445" s="1"/>
     </row>
     <row r="446" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A446" s="3"/>
+      <c r="A446" s="1"/>
     </row>
     <row r="447" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A447" s="3"/>
+      <c r="A447" s="1"/>
     </row>
     <row r="448" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A448" s="3"/>
+      <c r="A448" s="1"/>
     </row>
     <row r="449" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A449" s="3"/>
+      <c r="A449" s="1"/>
     </row>
     <row r="450" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A450" s="3"/>
+      <c r="A450" s="1"/>
     </row>
     <row r="451" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A451" s="3"/>
+      <c r="A451" s="1"/>
     </row>
     <row r="452" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A452" s="3"/>
+      <c r="A452" s="1"/>
     </row>
     <row r="453" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A453" s="3"/>
+      <c r="A453" s="1"/>
     </row>
     <row r="454" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A454" s="3"/>
+      <c r="A454" s="1"/>
     </row>
     <row r="455" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A455" s="3"/>
+      <c r="A455" s="1"/>
     </row>
     <row r="456" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A456" s="3"/>
+      <c r="A456" s="1"/>
     </row>
     <row r="457" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A457" s="3"/>
+      <c r="A457" s="1"/>
     </row>
     <row r="458" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A458" s="3"/>
+      <c r="A458" s="1"/>
     </row>
     <row r="459" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A459" s="3"/>
+      <c r="A459" s="1"/>
     </row>
     <row r="460" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A460" s="3"/>
+      <c r="A460" s="1"/>
     </row>
     <row r="461" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A461" s="3"/>
+      <c r="A461" s="1"/>
     </row>
     <row r="462" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A462" s="3"/>
+      <c r="A462" s="1"/>
     </row>
     <row r="463" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A463" s="3"/>
+      <c r="A463" s="1"/>
     </row>
     <row r="464" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A464" s="3"/>
+      <c r="A464" s="1"/>
     </row>
     <row r="465" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A465" s="3"/>
+      <c r="A465" s="1"/>
     </row>
     <row r="466" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A466" s="3"/>
+      <c r="A466" s="1"/>
     </row>
     <row r="467" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A467" s="3"/>
+      <c r="A467" s="1"/>
     </row>
     <row r="470" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A470" s="3"/>
+      <c r="A470" s="1"/>
     </row>
     <row r="471" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A471" s="3"/>
+      <c r="A471" s="1"/>
     </row>
     <row r="472" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A472" s="3"/>
+      <c r="A472" s="1"/>
     </row>
     <row r="473" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A473" s="3"/>
+      <c r="A473" s="1"/>
     </row>
     <row r="474" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A474" s="3"/>
+      <c r="A474" s="1"/>
     </row>
     <row r="475" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A475" s="3"/>
+      <c r="A475" s="1"/>
     </row>
     <row r="476" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A476" s="3"/>
+      <c r="A476" s="1"/>
     </row>
     <row r="477" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A477" s="3"/>
+      <c r="A477" s="1"/>
     </row>
     <row r="478" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A478" s="3"/>
+      <c r="A478" s="1"/>
     </row>
     <row r="479" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A479" s="3"/>
+      <c r="A479" s="1"/>
     </row>
     <row r="480" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A480" s="3"/>
+      <c r="A480" s="1"/>
     </row>
     <row r="481" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A481" s="3"/>
+      <c r="A481" s="1"/>
     </row>
     <row r="482" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A482" s="3"/>
+      <c r="A482" s="1"/>
     </row>
     <row r="483" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A483" s="3"/>
+      <c r="A483" s="1"/>
     </row>
     <row r="484" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A484" s="3"/>
+      <c r="A484" s="1"/>
     </row>
     <row r="485" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A485" s="3"/>
+      <c r="A485" s="1"/>
     </row>
     <row r="486" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A486" s="3"/>
+      <c r="A486" s="1"/>
     </row>
     <row r="487" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A487" s="3"/>
+      <c r="A487" s="1"/>
     </row>
     <row r="488" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A488" s="3"/>
+      <c r="A488" s="1"/>
     </row>
     <row r="489" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A489" s="3"/>
+      <c r="A489" s="1"/>
     </row>
     <row r="490" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A490" s="3"/>
+      <c r="A490" s="1"/>
     </row>
     <row r="491" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A491" s="3"/>
+      <c r="A491" s="1"/>
     </row>
     <row r="492" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A492" s="3"/>
+      <c r="A492" s="1"/>
     </row>
     <row r="493" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A493" s="3"/>
+      <c r="A493" s="1"/>
     </row>
     <row r="494" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A494" s="3"/>
+      <c r="A494" s="1"/>
     </row>
     <row r="495" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A495" s="3"/>
+      <c r="A495" s="1"/>
     </row>
     <row r="496" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A496" s="3"/>
+      <c r="A496" s="1"/>
     </row>
     <row r="497" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A497" s="3"/>
+      <c r="A497" s="1"/>
     </row>
     <row r="498" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A498" s="3"/>
+      <c r="A498" s="1"/>
     </row>
     <row r="499" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A499" s="3"/>
+      <c r="A499" s="1"/>
     </row>
     <row r="500" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A500" s="3"/>
+      <c r="A500" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/nse_test.xlsx
+++ b/nse_test.xlsx
@@ -5,16 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\nseindia\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\PycharmProjects\nseindia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71AB9EB6-2110-420B-99ED-036C0C690EDB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F0776FC7-F649-4CA3-8D86-77F750D4386C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2910" yWindow="2355" windowWidth="17580" windowHeight="6540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="NIFTY" sheetId="1" r:id="rId1"/>
-    <sheet name="BANKNIFTY" sheetId="2" r:id="rId2"/>
+    <sheet name="BANK NIFTY" sheetId="3" r:id="rId1"/>
+    <sheet name="NIFTY" sheetId="1" r:id="rId2"/>
+    <sheet name="BANKNIFTY" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="13">
   <si>
     <t>CALLS</t>
   </si>
@@ -63,12 +64,15 @@
   <si>
     <t>-</t>
   </si>
+  <si>
+    <t>😁</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -103,6 +107,13 @@
     <font>
       <sz val="20"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -186,13 +197,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -482,11 +494,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B04A5064-3446-46FE-9478-6C727CFCE517}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M35"/>
+  <dimension ref="A1:R35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="48" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+    <sheetView zoomScale="48" workbookViewId="0">
+      <selection activeCell="S7" sqref="S7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -494,29 +518,29 @@
     <col min="1" max="13" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:18" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A1" s="3"/>
     </row>
-    <row r="2" spans="1:13" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:18" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="9"/>
       <c r="G2" s="2"/>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="8"/>
-    </row>
-    <row r="3" spans="1:13" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="9"/>
+    </row>
+    <row r="3" spans="1:18" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -532,7 +556,7 @@
       <c r="E3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="6" t="s">
         <v>4</v>
       </c>
       <c r="G3" s="2" t="s">
@@ -557,7 +581,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:18" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="3">
         <v>825</v>
       </c>
@@ -598,7 +622,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:18" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
         <v>11</v>
       </c>
@@ -639,7 +663,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:18" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
@@ -680,7 +704,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:18" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A7" s="3" t="s">
         <v>11</v>
       </c>
@@ -721,7 +745,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:18" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A8" s="3" t="s">
         <v>11</v>
       </c>
@@ -762,7 +786,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:18" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
@@ -802,8 +826,11 @@
       <c r="M9" s="3">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="R9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A10" s="3">
         <v>150</v>
       </c>
@@ -844,7 +871,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:18" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A11" s="3" t="s">
         <v>11</v>
       </c>
@@ -885,7 +912,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:18" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A12" s="3">
         <v>300</v>
       </c>
@@ -926,7 +953,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:18" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A13" s="3" t="s">
         <v>11</v>
       </c>
@@ -967,7 +994,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:18" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A14" s="3">
         <v>27075</v>
       </c>
@@ -1008,7 +1035,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:18" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A15" s="3">
         <v>225</v>
       </c>
@@ -1049,7 +1076,7 @@
         <v>1.45</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:18" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A16" s="3">
         <v>12000</v>
       </c>
@@ -1853,7 +1880,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51C424DB-EF53-4FCB-92CD-E88B2F033D85}">
   <dimension ref="A1"/>
   <sheetViews>
